--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467C49F-992B-4B59-9295-14ECD7B28316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CB907-C804-4311-9419-5B7D7E61C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22275" yWindow="4530" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11530" yWindow="1780" windowWidth="20340" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,16 +369,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -386,15 +386,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -418,15 +418,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808CB907-C804-4311-9419-5B7D7E61C7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3D331-312B-4A25-96B1-607D4F5956FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11530" yWindow="1780" windowWidth="20340" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14055" yWindow="465" windowWidth="32100" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,16 +369,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -386,15 +386,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -402,7 +402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -410,23 +410,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B3D331-312B-4A25-96B1-607D4F5956FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23CC07-2B2F-4AD1-94C2-CC642CCD2831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14055" yWindow="465" windowWidth="32100" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C23CC07-2B2F-4AD1-94C2-CC642CCD2831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09046C-B25D-2749-83F0-8ED9FF62FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="465" windowWidth="32100" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="760" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Total papers</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Seconday author - Major contribution  (&gt;3 months)</t>
+  </si>
+  <si>
+    <t>Papers in review as Co-First/Final author</t>
   </si>
 </sst>
 </file>
@@ -366,19 +369,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -386,15 +389,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -402,7 +405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -410,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -418,20 +421,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F09046C-B25D-2749-83F0-8ED9FF62FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D5265-DC40-E444-A698-CAE195160829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="760" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11120" yWindow="2500" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t xml:space="preserve">As First Author </t>
   </si>
   <si>
-    <t>As primary supervisor</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>Papers in review as Co-First/Final author</t>
+  </si>
+  <si>
+    <t>Senior, Co-senior or primary supervisor</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -383,10 +383,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -402,20 +402,20 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -423,7 +423,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -434,15 +434,15 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2D5265-DC40-E444-A698-CAE195160829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64383AB2-9F1C-E042-8743-1B48EF679862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11120" yWindow="2500" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2500" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64383AB2-9F1C-E042-8743-1B48EF679862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A4ED1-C1EA-8740-8D35-AE4845A483B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2500" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Total papers</t>
   </si>
   <si>
-    <t>As corresponding author</t>
-  </si>
-  <si>
     <t xml:space="preserve">As First Author </t>
   </si>
   <si>
@@ -48,10 +45,10 @@
     <t>Seconday author - Major contribution  (&gt;3 months)</t>
   </si>
   <si>
-    <t>Papers in review as Co-First/Final author</t>
-  </si>
-  <si>
     <t>Senior, Co-senior or primary supervisor</t>
+  </si>
+  <si>
+    <t>As (co-)corresponding author</t>
   </si>
 </sst>
 </file>
@@ -369,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -383,10 +380,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -394,12 +391,12 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -407,15 +404,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -423,7 +420,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -431,18 +428,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584A4ED1-C1EA-8740-8D35-AE4845A483B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717BB06-8F77-6D48-8718-7CAD6A931AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2500" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12140" yWindow="4020" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Total papers</t>
-  </si>
-  <si>
     <t xml:space="preserve">As First Author </t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   </si>
   <si>
     <t>As (co-)corresponding author</t>
+  </si>
+  <si>
+    <t>Total Papers</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -380,23 +380,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>

--- a/data/Publication details.xlsx
+++ b/data/Publication details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717BB06-8F77-6D48-8718-7CAD6A931AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029E68A0-E0DF-274F-8585-EB4B7ACBED2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="4020" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28640" yWindow="4000" windowWidth="32100" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -415,7 +415,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
